--- a/Csv2Bin/make/test.xlsx
+++ b/Csv2Bin/make/test.xlsx
@@ -1,22 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k_ohzono\Desktop\work\Csv2Bin\make\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k_ohzono\Desktop\Csv2Bin\Csv2Bin\make\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E613FC4-F06F-41B9-A8EA-DB909B7DB8FA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644B184D-20B9-4BAE-839D-73338D6DF8AD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table1" sheetId="1" r:id="rId1"/>
-    <sheet name="$table1" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
-    <sheet name="table1 (2)" sheetId="4" r:id="rId4"/>
+    <sheet name="table1 (2)" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
   <si>
     <t>field1</t>
     <phoneticPr fontId="1"/>
@@ -42,65 +40,13 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>fieldName</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>type</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>s32</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>f32</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>u16</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>field4</t>
   </si>
   <si>
-    <t>field4</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>field5</t>
   </si>
   <si>
-    <t>field5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>field6</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>u32</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>u8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>u8:1</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>u8:2</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>u8:5</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>u8:7</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -145,14 +91,6 @@
   </si>
   <si>
     <t>Z</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>sjis:8</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>utf16:4</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -509,16 +447,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="G1" t="s">
-        <v>22</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -538,10 +476,10 @@
         <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -584,10 +522,10 @@
         <v>2</v>
       </c>
       <c r="F4" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
       <c r="G4" t="s">
-        <v>29</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -598,180 +536,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{778DFAE7-96C1-4BF9-9DA3-5CAAB07EE42B}">
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C5A020-C612-49E2-B240-7F8A281C9141}">
-  <dimension ref="A1:B15"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15:XFD15"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
-  <sheetData>
-    <row r="1" spans="1:2">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2">
-      <c r="A2" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2">
-      <c r="A4" t="s">
-        <v>0</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2">
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2">
-      <c r="A9" t="s">
-        <v>11</v>
-      </c>
-      <c r="B9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2">
-      <c r="B10" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2">
-      <c r="A11" t="s">
-        <v>9</v>
-      </c>
-      <c r="B11" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2">
-      <c r="B12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2">
-      <c r="A13" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2">
-      <c r="A14" t="s">
-        <v>12</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2">
-      <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>27</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B9EA90-EC71-4394-9645-1DF34BCFE964}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -787,16 +556,16 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
         <v>8</v>
-      </c>
-      <c r="E1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F1" t="s">
-        <v>12</v>
-      </c>
-      <c r="G1" t="s">
-        <v>21</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -816,10 +585,10 @@
         <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -862,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>23</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -885,10 +654,10 @@
         <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="G5" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -908,10 +677,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="G6" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -931,10 +700,10 @@
         <v>3</v>
       </c>
       <c r="F7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -954,10 +723,10 @@
         <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G8" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -977,10 +746,10 @@
         <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G9" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1000,10 +769,10 @@
         <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G10" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1023,10 +792,10 @@
         <v>5</v>
       </c>
       <c r="F11" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="G11" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Csv2Bin/make/test.xlsx
+++ b/Csv2Bin/make/test.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k_ohzono\Desktop\Csv2Bin\Csv2Bin\make\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{644B184D-20B9-4BAE-839D-73338D6DF8AD}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCA3C0F-D3E2-4EDD-9D04-541D3A710853}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="14">
   <si>
     <t>field1</t>
     <phoneticPr fontId="1"/>
@@ -91,18 +91,6 @@
   </si>
   <si>
     <t>Z</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>あいう</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>あ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>い</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -428,10 +416,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -473,13 +461,13 @@
         <v>1</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>7</v>
       </c>
       <c r="G2" t="s">
-        <v>16</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -496,7 +484,7 @@
         <v>0</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
         <v>123456</v>
@@ -507,25 +495,186 @@
     </row>
     <row r="4" spans="1:7">
       <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>3</v>
+      </c>
+      <c r="C4">
+        <v>1.3</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4" t="s">
+        <v>10</v>
+      </c>
+      <c r="G4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>-4</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>1.4</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
+      <c r="D5">
+        <v>0</v>
+      </c>
+      <c r="E5">
         <v>2</v>
       </c>
-      <c r="F4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>14</v>
+      <c r="F5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>5</v>
+      </c>
+      <c r="C6">
+        <v>1.5</v>
+      </c>
+      <c r="D6">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
+      </c>
+      <c r="F6" t="s">
+        <v>12</v>
+      </c>
+      <c r="G6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>-6</v>
+      </c>
+      <c r="C7">
+        <v>1.6</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7" t="s">
+        <v>13</v>
+      </c>
+      <c r="G7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>7</v>
+      </c>
+      <c r="C8">
+        <v>1.7</v>
+      </c>
+      <c r="D8">
+        <v>4</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>-8</v>
+      </c>
+      <c r="C9">
+        <v>1.8</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
+      </c>
+      <c r="E9">
+        <v>4</v>
+      </c>
+      <c r="F9" t="s">
+        <v>13</v>
+      </c>
+      <c r="G9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>9</v>
+      </c>
+      <c r="C10">
+        <v>1.9</v>
+      </c>
+      <c r="D10">
+        <v>5</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10" t="s">
+        <v>13</v>
+      </c>
+      <c r="G10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>-10</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="D11">
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <v>5</v>
+      </c>
+      <c r="F11" t="s">
+        <v>13</v>
+      </c>
+      <c r="G11" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -539,8 +688,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{30B9EA90-EC71-4394-9645-1DF34BCFE964}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/Csv2Bin/make/test.xlsx
+++ b/Csv2Bin/make/test.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\k_ohzono\Desktop\Csv2Bin\Csv2Bin\make\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CCCA3C0F-D3E2-4EDD-9D04-541D3A710853}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BACCDE40-036B-43AE-8717-93B948193786}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2055" yWindow="1560" windowWidth="16155" windowHeight="8805" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table1" sheetId="1" r:id="rId1"/>
-    <sheet name="table1 (2)" sheetId="4" r:id="rId2"/>
+    <sheet name="table2" sheetId="4" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -419,7 +419,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G11"/>
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -689,7 +689,7 @@
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:G11"/>
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
